--- a/TestData/login.xlsx
+++ b/TestData/login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\PycharmProjects\ISLG_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1639C58B-E227-41DD-A961-5A9133166944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5263AB3-3B98-452D-94F1-3A1E68D31220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6403021-7FA0-4F68-9401-91BB271F2FBA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Messages123@</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/TestData/login.xlsx
+++ b/TestData/login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\PycharmProjects\ISLG_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5263AB3-3B98-452D-94F1-3A1E68D31220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1639C58B-E227-41DD-A961-5A9133166944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6403021-7FA0-4F68-9401-91BB271F2FBA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Messages123@</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
